--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1999675.480918346</v>
+        <v>2098778.398770211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6133287.423675188</v>
+        <v>6532626.317809268</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,10 +718,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>349.8187905472695</v>
       </c>
       <c r="W2" t="n">
-        <v>386.5450219512094</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>114.5588197329404</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>195.8987734848109</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>87.66495591076779</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>392.2569788649469</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>76.64068269426173</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.9875504075058</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1136,7 +1138,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1526191020227</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>22.51978202893098</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>40.61315782650623</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>95.95896052973103</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1376,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3651134784223</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5854374042942</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>93.51234616981628</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>130.5508181853502</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>51.69511841098192</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>52.65674218915531</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.858786719141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>14.58981000669304</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2527,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>32.03690397903014</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>156.702466365015</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>156.9481158136201</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>145.2504475259967</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.60537108849643</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>114.4491387262518</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>57.24387488545715</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3472,25 +3474,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>160.5731908199219</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>272.2828504607726</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3715,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.9813210128649</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>356.9803289877788</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>112.3289432395774</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>160.906102102331</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,13 +3979,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>17.68866360653616</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4144,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>175.4645224572209</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>44.67506049370279</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>568.8670150191533</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728575</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4328,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>997.6918401072377</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>990.012245315389</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>584.6749752702793</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437783</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>974.3357998282165</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.226407393235</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>971.654195720899</v>
+        <v>820.5663062084095</v>
       </c>
       <c r="C4" t="n">
-        <v>855.9382161926764</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.726803962681</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.01533657071</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743223</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X4" t="n">
-        <v>1388.162932743223</v>
+        <v>1208.609823895032</v>
       </c>
       <c r="Y4" t="n">
-        <v>1161.820164432965</v>
+        <v>1010.732274920475</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.205662800889</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>1019.345336854593</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386657</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.31048905672</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1058.013623052015</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4223778677172</v>
+        <v>1105.325610318065</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466331</v>
+        <v>933.3530471969812</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734038</v>
+        <v>770.0362743237519</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262574</v>
+        <v>603.8280684766054</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008178</v>
+        <v>431.9662942511658</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008178</v>
+        <v>265.7093245453979</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089722</v>
+        <v>121.9130560535523</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168989</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V7" t="n">
-        <v>1727.553143168989</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.495011444236</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="X7" t="n">
-        <v>1377.931114890041</v>
+        <v>1521.834347340389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1151.588346579783</v>
+        <v>1295.491579030131</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.2761281011831</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C8" t="n">
-        <v>128.3753981144832</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4808,22 +4810,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="V8" t="n">
-        <v>1388.141357229671</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.141357229671</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>976.4213583974188</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y8" t="n">
-        <v>975.1244923927131</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.4498147466326</v>
+        <v>689.8407992411743</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4498147466326</v>
+        <v>517.8682361200903</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1330418734033</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1723.374852150638</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1723.374852150638</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1448.522448323151</v>
+        <v>1348.913432817693</v>
       </c>
       <c r="X10" t="n">
-        <v>1205.958551768956</v>
+        <v>1106.349536263498</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.6157834586982</v>
+        <v>880.0067679532399</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.201891670715</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1570.301161684015</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1147.008540869015</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>721.0316010168725</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>295.9074192062727</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>99.57902175332092</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>2381.073683267897</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3181.515295665699</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.515295665699</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2822.387526007354</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2417.050255962245</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>655.1670770651317</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>1157.172064038804</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.172064038804</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.172064038804</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>767.6724395326037</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>767.6724395326037</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679213</v>
+        <v>604.3556666593744</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679213</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679213</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679213</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679213</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>957.8384082446693</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2098.741872743728</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1671.841142757028</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.548521942028</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>822.5715820898859</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4474002792861</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>807.3886860041712</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.830298401974</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.830298401974</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>2408.271910799777</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>2408.271910799777</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2650.459750353793</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2518.590237035258</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2518.590237035258</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2518.590237035258</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>473.1185105005457</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>473.1185105005457</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>473.1185105005457</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>473.1185105005457</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.7612160464561</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C16" t="n">
-        <v>116.7886529253721</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="D16" t="n">
-        <v>64.68215049679215</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1483.587973045304</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5835,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O24" t="n">
-        <v>1191.617659878699</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1907.815376917197</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3369.780547132336</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C25" t="n">
-        <v>3197.807984011252</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D25" t="n">
-        <v>3034.491211138023</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>3034.491211138023</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4865.601500428008</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4585.417051928313</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4303.705584536341</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>4028.853180708854</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X25" t="n">
-        <v>3786.28928415466</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y25" t="n">
-        <v>3559.946515844401</v>
+        <v>1033.96404804924</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6241,13 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3845.931202281452</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4786.715303249941</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4786.715303249941</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4505.00383585797</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4505.00383585797</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X28" t="n">
-        <v>4262.439939303775</v>
+        <v>1101.77336604271</v>
       </c>
       <c r="Y28" t="n">
-        <v>4036.097170993517</v>
+        <v>875.4305977324519</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3774.338928650966</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C31" t="n">
-        <v>3602.366365529882</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D31" t="n">
-        <v>3439.049592656653</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>3272.841386809506</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.979612584067</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791732</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4553.23975439976</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4278.387350572273</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4035.823454018078</v>
+        <v>838.736788768378</v>
       </c>
       <c r="Y31" t="n">
-        <v>3964.504897363031</v>
+        <v>612.3940204581201</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,22 +6785,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.458684077479</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>857.4861209563953</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>694.169348083166</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E34" t="n">
-        <v>527.9611422360196</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>160.1248092497246</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.967421099803</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1445.967421099803</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1219.624652789545</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
         <v>246.0989818976742</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2073.481985263785</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1793.297536764089</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1793.297536764089</v>
+        <v>1266.98510146786</v>
       </c>
       <c r="W37" t="n">
-        <v>1518.445132936602</v>
+        <v>992.1326976403734</v>
       </c>
       <c r="X37" t="n">
-        <v>1275.881236382407</v>
+        <v>992.1326976403734</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>765.7899293301155</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7159,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7254,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.68756743822</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C40" t="n">
-        <v>869.7150043171358</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439065</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.529878172021</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1344.965981617826</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y40" t="n">
-        <v>1231.853536150285</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2468.184063897751</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.283333911051</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.990713096051</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1943.235529686989</v>
+        <v>2608.809720925906</v>
       </c>
       <c r="N41" t="n">
-        <v>1943.235529686989</v>
+        <v>3585.060779412607</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295593</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.46571045352</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839606</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839606</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839606</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839606</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2873.52133394286</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2468.184063897751</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>937.263987363325</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816967</v>
+        <v>937.263987363325</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>651.3790722411763</v>
       </c>
       <c r="C43" t="n">
-        <v>975.8907098999449</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267156</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V43" t="n">
-        <v>2001.75583013582</v>
+        <v>1585.304109645182</v>
       </c>
       <c r="W43" t="n">
-        <v>1726.903426308333</v>
+        <v>1310.451705817695</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.372010043352</v>
+        <v>1067.8878092635</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>841.5450409532421</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2076.18020516758</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.18020516758</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.88758435258</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945947</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M44" t="n">
-        <v>1515.667965162098</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.109577559901</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3111.872893736448</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2853.51798433286</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2496.028569459109</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2496.028569459109</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2496.028569459109</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2496.028569459109</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290552</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808057</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323342</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.495589596279</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279183</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496787</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259097</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259097</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259097</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259097</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>1425.419894259097</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M45" t="n">
-        <v>1633.224300044001</v>
+        <v>3832.512987391932</v>
       </c>
       <c r="N45" t="n">
-        <v>2433.665912441804</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839606</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839606</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839606</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400861</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.903341698539</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618176</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757442</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357323</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710615</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1048.094704761305</v>
+        <v>3568.496595129405</v>
       </c>
       <c r="C46" t="n">
-        <v>876.122141640221</v>
+        <v>3396.524032008321</v>
       </c>
       <c r="D46" t="n">
-        <v>712.8053687669917</v>
+        <v>3233.207259135092</v>
       </c>
       <c r="E46" t="n">
-        <v>546.5971629198452</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="F46" t="n">
-        <v>374.7353886944056</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886377</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679213</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.582169342129</v>
+        <v>4263.149786882017</v>
       </c>
       <c r="V46" t="n">
-        <v>1784.582169342129</v>
+        <v>4085.912895511087</v>
       </c>
       <c r="W46" t="n">
-        <v>1509.729765514641</v>
+        <v>3811.0604916836</v>
       </c>
       <c r="X46" t="n">
-        <v>1464.603441783629</v>
+        <v>3568.496595129405</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.260673473371</v>
+        <v>3568.496595129405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3411813754878</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>91.07600343998024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>87.05611188819479</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8228,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>266.2788756958121</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8456,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8468,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N9" t="n">
-        <v>378.5549082613589</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093335</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.24813841662585</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5908311320803</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>534.215094511344</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>419.7071025023685</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>748.9646656023817</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>391.6870344996401</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089942</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>536.0439560200246</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>446.7430431677336</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,10 +9737,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.95407573255603</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>1016.408610200736</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,13 +10357,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10370,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>144.7265265585092</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10674,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4187726313924</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>666.9631766140774</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>909.7539098207853</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>46.43227411218906</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>586.0789411493253</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010019</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>694.5466187251931</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>618.2032678795049</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206990999</v>
+        <v>666.8880674041825</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.9305583080236</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>71.03377761885869</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>261.8766180173063</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>112.8510053776931</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.8893815995197</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.2205539080143</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>67.05468316636299</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>173.6744990182519</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.8690503173289</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>84.20348793134397</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>83.19014177503277</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>94.88781006265626</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.4739695386589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>55.69401775693342</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>85.11443092147</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>80.33276347643709</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>6.611502257278744</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.0980196142905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>50.62246985615138</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.92389425029572</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.23215548632189</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>201.027651639277</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>103.4298302608305</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>195.4631970949501</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416762.512002746</v>
+        <v>553435.8294509875</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416762.5120027461</v>
+        <v>553435.8294509874</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374472</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374472</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416762.512002746</v>
+        <v>553435.8294509874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416762.5120027461</v>
+        <v>553435.8294509874</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
+        <v>436832.0010083722</v>
+      </c>
+      <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
-      <c r="D2" t="n">
-        <v>436832.0010083725</v>
-      </c>
       <c r="E2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020595</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="G2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="H2" t="n">
         <v>421522.8023530854</v>
-      </c>
-      <c r="H2" t="n">
-        <v>421522.8023530855</v>
       </c>
       <c r="I2" t="n">
         <v>421522.8023530852</v>
       </c>
       <c r="J2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="K2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530851</v>
       </c>
       <c r="L2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882404</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346219</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537384</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26426,19 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
@@ -26445,19 +26447,19 @@
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43473.26722391421</v>
+        <v>43473.2672239141</v>
       </c>
       <c r="C6" t="n">
+        <v>229878.0006386511</v>
+      </c>
+      <c r="D6" t="n">
         <v>229878.0006386513</v>
       </c>
-      <c r="D6" t="n">
-        <v>229878.0006386514</v>
-      </c>
       <c r="E6" t="n">
-        <v>187504.7643377137</v>
+        <v>130799.199721222</v>
       </c>
       <c r="F6" t="n">
-        <v>262835.7154911759</v>
+        <v>338231.487337783</v>
       </c>
       <c r="G6" t="n">
-        <v>214082.2800931718</v>
+        <v>335347.0578212307</v>
       </c>
       <c r="H6" t="n">
-        <v>342972.6799047124</v>
+        <v>342972.6799047123</v>
       </c>
       <c r="I6" t="n">
         <v>342972.6799047121</v>
       </c>
       <c r="J6" t="n">
-        <v>197439.0099698958</v>
+        <v>197439.0099698957</v>
       </c>
       <c r="K6" t="n">
-        <v>342972.6799047122</v>
+        <v>342972.6799047121</v>
       </c>
       <c r="L6" t="n">
-        <v>342972.6799047122</v>
+        <v>342972.6799047124</v>
       </c>
       <c r="M6" t="n">
-        <v>280098.7429393384</v>
+        <v>169842.1886990729</v>
       </c>
       <c r="N6" t="n">
         <v>342972.6799047124</v>
       </c>
       <c r="O6" t="n">
-        <v>262835.7154911758</v>
+        <v>338231.4873377829</v>
       </c>
       <c r="P6" t="n">
-        <v>262835.7154911757</v>
+        <v>338231.487337783</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.095730177743519</v>
       </c>
       <c r="W2" t="n">
-        <v>5.88241425144713</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>55.69401775693274</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.18056714234447</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>331.3947386960819</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.1704573377097063</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.13019988286506</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>166.1163293817063</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>378.907075504827</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>233.2515782806208</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>236.7694461881925</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>176.1449192594811</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67.90411371775802</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>48.74406945557187</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>357.2118800478172</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099017</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.12346381202781</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>507.0757444178507</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>383.9425017075591</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>711.5737062463576</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>369.2878006663068</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.903440186772</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,13 +37077,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37090,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>507.0757444178507</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>643.7912868918552</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>872.3226469213536</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>9.041314756164967</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>563.6797073159919</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867723</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>657.1153558257613</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>580.6279060692736</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>209.903440186772</v>
+        <v>643.7912868918545</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2098778.398770211</v>
+        <v>2098060.408655353</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>40.15261910202258</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -718,10 +718,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>349.8187905472695</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>23.04621311339731</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.8987734848109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>220.3560188701923</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.2569788649469</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>76.64068269426173</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1138,7 +1138,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>215.2905975926242</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>22.51978202893098</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1299,16 +1299,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>73.50111029899462</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>95.95896052973103</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>313.7451392166883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>93.51234616981628</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>186.9176635037728</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>51.69511841098192</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>163.4929392938537</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>52.65674218915531</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>176.6083170281517</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>75.30362264056416</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.58981000669304</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,10 +2487,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>142.3668648089844</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2727,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>156.9481158136201</v>
+        <v>107.547401993793</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>145.2504475259967</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>57.24387488545715</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>42.87682513228527</v>
       </c>
     </row>
     <row r="35">
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>272.2828504607726</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>121.9815308269506</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7451392166883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3289432395774</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7451392166883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4188,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>175.4645224572209</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>555.276128101183</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>128.3753981144831</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
         <v>1674.245717477938</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>1380.461762437823</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>975.124492392713</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M3" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.5663062084095</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>648.5937430873255</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4488,25 +4488,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2154.593636004704</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>2154.593636004704</v>
       </c>
       <c r="U4" t="n">
-        <v>2007.737591668685</v>
+        <v>1874.409187505008</v>
       </c>
       <c r="V4" t="n">
-        <v>1726.026124276714</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W4" t="n">
-        <v>1451.173720449226</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X4" t="n">
-        <v>1208.609823895032</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y4" t="n">
-        <v>1010.732274920475</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>333.2593601902432</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>310.3990342439474</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
         <v>65.88066118959054</v>
@@ -4570,49 +4570,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094558</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>838.3748437825398</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825398</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
         <v>838.3748437825398</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1105.325610318065</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>933.3530471969812</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>770.0362743237519</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>603.8280684766054</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>431.9662942511658</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>265.7093245453979</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>121.9130560535523</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1764.398243894584</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1521.834347340389</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1295.491579030131</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595572</v>
+        <v>767.0800483381174</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728574</v>
+        <v>340.1793183514175</v>
       </c>
       <c r="D8" t="n">
         <v>122.7140682578577</v>
@@ -4807,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2202.163997887699</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2202.163997887699</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1805.772648188046</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.093053396197</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>1186.928412629647</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.8407992411743</v>
+        <v>792.1010868727071</v>
       </c>
       <c r="C10" t="n">
-        <v>517.8682361200903</v>
+        <v>620.1285237516231</v>
       </c>
       <c r="D10" t="n">
-        <v>354.551463246861</v>
+        <v>456.8117508783938</v>
       </c>
       <c r="E10" t="n">
-        <v>354.551463246861</v>
+        <v>290.6035450312473</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>118.7417708058078</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4995,19 +4995,19 @@
         <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.913432817693</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X10" t="n">
-        <v>1106.349536263498</v>
+        <v>1208.609823895031</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.0067679532399</v>
+        <v>982.2670555847728</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
         <v>1262.305438882635</v>
@@ -5041,52 +5041,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618962</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M12" t="n">
-        <v>936.8757529618962</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N12" t="n">
-        <v>1444.619098596721</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O12" t="n">
-        <v>1444.619098596721</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.6724395326037</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>767.6724395326037</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>604.3556666593744</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>509.8987513363276</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2037.150624518018</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1756.966176018322</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.254708626351</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W13" t="n">
-        <v>1200.402304798864</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X13" t="n">
-        <v>957.8384082446693</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.8384082446693</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5278,22 +5278,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O14" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5314,16 +5314,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>473.1185105005457</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>473.1185105005457</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>473.1185105005457</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>473.1185105005457</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O15" t="n">
-        <v>1362.599788512017</v>
+        <v>997.0048658523735</v>
       </c>
       <c r="P15" t="n">
         <v>1362.599788512017</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.1560104286538</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="C16" t="n">
-        <v>324.1560104286538</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>324.1560104286538</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>271.9387191044297</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0769448789901</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0769448789901</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1945.210541686148</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1945.210541686148</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1945.210541686148</v>
       </c>
       <c r="W16" t="n">
-        <v>983.2286440051723</v>
+        <v>1670.358137858661</v>
       </c>
       <c r="X16" t="n">
-        <v>740.6647474509774</v>
+        <v>1427.794241304467</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.3219791407195</v>
+        <v>1201.451472994209</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5542,10 +5542,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>999.230634379212</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742.8905159778161</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C19" t="n">
-        <v>570.9179528567321</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D19" t="n">
-        <v>570.9179528567321</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="20">
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>178.3669786993277</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>178.3669786993277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>178.3669786993277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1019.226866224298</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C25" t="n">
-        <v>847.2543031032136</v>
+        <v>985.454412532011</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>822.1376396587817</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>655.9294338116352</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6186,13 +6186,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.96404804924</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
         <v>648.6278400003578</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>875.4305977324519</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>703.4580346113679</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1412617381386</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>373.9330558909921</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W28" t="n">
-        <v>1260.306816359498</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="X28" t="n">
-        <v>1101.77336604271</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>875.4305977324519</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6545,25 +6545,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>381.4468456473314</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L30" t="n">
-        <v>381.4468456473314</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>612.3940204581201</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6663,10 +6663,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>838.736788768378</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>612.3940204581201</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>326.3817789554925</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>326.3817789554925</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>326.3817789554925</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>160.1248092497246</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3114.325629236558</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3959.47027938737</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>575.6239606180499</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>575.6239606180499</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D37" t="n">
-        <v>412.3071877448206</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E37" t="n">
-        <v>246.0989818976742</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7131,16 +7131,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.98510146786</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>992.1326976403734</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>992.1326976403734</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>765.7899293301155</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7177,16 +7177,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747414</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>437.5920494001418</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C40" t="n">
-        <v>265.6194862790578</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D40" t="n">
-        <v>102.3027134058285</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>397.3781551332385</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>225.5163809077989</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>854.1007864224655</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>627.7580181122075</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
         <v>1262.305438882635</v>
@@ -7411,28 +7411,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2608.809720925906</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3585.060779412607</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7447,16 +7447,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>937.263987363325</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>937.263987363325</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M42" t="n">
-        <v>937.263987363325</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N42" t="n">
-        <v>937.263987363325</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
         <v>1826.745265374797</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.3790722411763</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>537.9154932113001</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>537.9154932113001</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>371.7072873641537</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>199.8455131387141</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>199.8455131387141</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
         <v>199.8455131387141</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.354924811253</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T43" t="n">
-        <v>1867.015577037153</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U43" t="n">
-        <v>1867.015577037153</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="V43" t="n">
-        <v>1585.304109645182</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.451705817695</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.8878092635</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.5450409532421</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7633,37 +7633,37 @@
         <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.988093917325</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N44" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3855.383802554838</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
         <v>4430.205429563419</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368996</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>3832.512987391932</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>4921.827933864802</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>4921.827933864802</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>4921.827933864802</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>4921.827933864802</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3568.496595129405</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>3396.524032008321</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
-        <v>3233.207259135092</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>3066.999053287946</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>3066.999053287946</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882017</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="V46" t="n">
-        <v>4085.912895511087</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W46" t="n">
-        <v>3811.0604916836</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>3568.496595129405</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>3568.496595129405</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>205.7998844961774</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
-        <v>111.3736009736648</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,13 +8233,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>266.2788756958121</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8306,7 +8306,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>541.2748327507026</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8455,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7998844961774</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,16 +8467,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721212</v>
+        <v>178.3948923327714</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>194.3202945097473</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8774,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>534.215094511344</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8938,13 +8938,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>653.2657740422958</v>
       </c>
       <c r="O14" t="n">
-        <v>748.9646656023817</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>391.6870344996401</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9023,7 +9023,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>391.0586418711355</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>473.9064298354822</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>536.0439560200246</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>446.7430431677336</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9734,10 +9734,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9965,10 +9965,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10126,7 +10126,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10135,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>253.3075301902236</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.408610200736</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10214,7 +10214,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>144.7265265585092</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,13 +10445,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>71.84891570906657</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>625.4779643536372</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>669.6242757926666</v>
       </c>
       <c r="N36" t="n">
-        <v>1022.176719479639</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>666.9631766140774</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>909.7539098207853</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>586.0789411493253</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>618.2032678795049</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
-        <v>666.8880674041825</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>71.03377761885869</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>112.8510053776931</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>77.41301500250535</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>111.8893815995197</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>63.52994056050119</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>67.05468316636299</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.6744990182519</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>27.77629167420076</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>83.19014177503277</v>
+        <v>132.5908555948599</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>94.88781006265626</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>85.11443092147</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>181.2025154948701</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>109.9884867335149</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.611502257278744</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>42.61286918175955</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.92389425029572</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>103.4298302608305</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>553435.8294509875</v>
+        <v>553435.8294509874</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>553435.8294509874</v>
+        <v>553435.8294509875</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374473</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083725</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083723</v>
-      </c>
-      <c r="C2" t="n">
-        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882403</v>
       </c>
       <c r="F2" t="n">
         <v>415076.8720882405</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530852</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="H2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="I2" t="n">
-        <v>421522.8023530852</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="J2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="K2" t="n">
-        <v>421522.8023530851</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="L2" t="n">
         <v>421522.8023530855</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="N2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="O2" t="n">
         <v>415076.8720882404</v>
       </c>
       <c r="P2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882404</v>
       </c>
     </row>
     <row r="3">
@@ -26426,13 +26426,13 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433671</v>
@@ -26456,7 +26456,7 @@
         <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
         <v>786.906642425063</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43473.2672239141</v>
+        <v>43473.26722391415</v>
       </c>
       <c r="C6" t="n">
-        <v>229878.0006386511</v>
+        <v>229878.0006386512</v>
       </c>
       <c r="D6" t="n">
         <v>229878.0006386513</v>
       </c>
       <c r="E6" t="n">
-        <v>130799.199721222</v>
+        <v>130726.6826248215</v>
       </c>
       <c r="F6" t="n">
-        <v>338231.487337783</v>
+        <v>338158.9702413825</v>
       </c>
       <c r="G6" t="n">
-        <v>335347.0578212307</v>
+        <v>335296.0271590466</v>
       </c>
       <c r="H6" t="n">
-        <v>342972.6799047123</v>
+        <v>342921.6492425281</v>
       </c>
       <c r="I6" t="n">
-        <v>342972.6799047121</v>
+        <v>342921.649242528</v>
       </c>
       <c r="J6" t="n">
-        <v>197439.0099698957</v>
+        <v>197387.9793077115</v>
       </c>
       <c r="K6" t="n">
-        <v>342972.6799047121</v>
+        <v>342921.6492425278</v>
       </c>
       <c r="L6" t="n">
-        <v>342972.6799047124</v>
+        <v>342921.6492425282</v>
       </c>
       <c r="M6" t="n">
-        <v>169842.1886990729</v>
+        <v>169791.1580368884</v>
       </c>
       <c r="N6" t="n">
-        <v>342972.6799047124</v>
+        <v>342921.6492425279</v>
       </c>
       <c r="O6" t="n">
-        <v>338231.4873377829</v>
+        <v>338158.9702413824</v>
       </c>
       <c r="P6" t="n">
-        <v>338231.487337783</v>
+        <v>338158.9702413824</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>378.9070755048271</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.095730177743519</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>145.3874838926592</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.18056714234447</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>198.7036757366574</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1704573377097063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.13019988286506</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>203.7690970142255</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27906,19 +27906,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>233.2515782806208</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>91.09328970971556</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>176.1449192594811</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L2" t="n">
-        <v>167.4878420635545</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>444.605878150503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L5" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>245.6677613624788</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597932</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8890316103155</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35658,13 +35658,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="O14" t="n">
-        <v>711.5737062463576</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>369.2878006663068</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>452.1355886306535</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391566</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>512.8720662978023</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>424.2279564535041</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36846,7 +36846,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>230.9082963568903</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>993.3118296884085</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>587.9026025434059</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="N36" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>643.7912868918552</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>872.3226469213536</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>563.6797073159919</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>580.6279060692736</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
-        <v>643.7912868918545</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
